--- a/Concurso - CELEPAR.xlsx
+++ b/Concurso - CELEPAR.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Programação" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Específica" sheetId="1" r:id="rId1"/>
+    <sheet name="Português" sheetId="2" r:id="rId2"/>
+    <sheet name="Atualizades" sheetId="6" r:id="rId3"/>
+    <sheet name="Matemática" sheetId="4" r:id="rId4"/>
+    <sheet name="Raciocínio lógico" sheetId="5" r:id="rId5"/>
+    <sheet name="ECA" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>UML</t>
   </si>
@@ -145,6 +148,27 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8dlThWq56DM</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iRs6sQOPcvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curso GIT e GITHUB - Criando ramificações do projeto (branch e merge)</t>
+  </si>
+  <si>
+    <t>Como usar o Github Desktop</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fj3gtbaF8WA</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Descrição</t>
   </si>
 </sst>
 </file>
@@ -507,16 +531,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -539,237 +1314,116 @@
       <c r="A2" s="2">
         <v>44151</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -1057,77 +1711,7 @@
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
-    <hyperlink ref="D17" r:id="rId6"/>
-    <hyperlink ref="D18" r:id="rId7"/>
-    <hyperlink ref="D19" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1142,4 +1726,438 @@
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Concurso - CELEPAR.xlsx
+++ b/Concurso - CELEPAR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>UML</t>
   </si>
@@ -169,13 +169,91 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>//Exibe o rama em que se encontra
+git brach
+git log --oneline 
+//para criar uma nova ramificação do projeto
+git checkout -b teste
+//Limpar a tela
+clear
+//Saber em que ramo ele está
+git branch
+//verificar se há arquivos modificados
+git status
+//Adicionar os arquivos modificados
+git add .
+//Preparando o pacote commit para ser enviado
+git commit -m "Mensagem que quer gravar ao dar o commit"
+//para retornar para o ramo master
+git checkout master
+//visualizar os nodes do ramo master
+git log --oneline --graph
+//Visualizar todos os nodes criados
+git log --oneline --graph --all
+ou
+git log --graph --all 
+para sair pressione a letra q
+//Para fazer a fusão dos ramos é preciso estar no ramo master.
+//Verifique usando o comanto git branch
+git merge teste
+Pode ser que gere conflitos. Resolva os conflitos.
+Depois faça o comando
+git status
+Verifique o resultado.
+git add .
+git commit -m "Fusão"
+git log --oneline --graph --all</t>
+  </si>
+  <si>
+    <t>Anotações da aula " Curso GIT e GITHUB - Criando ramificações do projeto (branch e merge)"</t>
+  </si>
+  <si>
+    <t>Aula 09</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hp1iYAoywc8</t>
+  </si>
+  <si>
+    <t>Java, operadores de atribuição; psvm; sout</t>
+  </si>
+  <si>
+    <t>Controle de fluxo if, else if e else</t>
+  </si>
+  <si>
+    <t>Aula 10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JwNYr5HBYkI&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ea71ar8V8LI</t>
+  </si>
+  <si>
+    <t>Aula 11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Controle de fluxo if, else if e else - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTRL+ALT+L formatar código</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +273,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,6 +314,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -533,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,70 +871,119 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
@@ -1276,9 +1412,12 @@
     <hyperlink ref="E13" r:id="rId9"/>
     <hyperlink ref="E15" r:id="rId10"/>
     <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E17" r:id="rId12"/>
+    <hyperlink ref="E18" r:id="rId13"/>
+    <hyperlink ref="E19" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
